--- a/src/test/java/com/nablarch/example/app/batch/ProjectCreationServiceActionTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/batch/ProjectCreationServiceActionTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="489" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="139">
   <si>
     <t>no</t>
   </si>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">// </t>
     </r>
@@ -642,11 +638,237 @@
     <t>SETUP_TABLE[3]=PROJECT</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未処理のプロジェクトのみ登録されること</t>
+    <rPh sb="0" eb="3">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color indexed="9"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>準備データ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color indexed="9"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SETUP_TABLE[4]=INS_PROJECT_RECEIVE_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SETUP_TABLE[4]=PROJECT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECTED_TABLE[4]=INS_PROJECT_RECEIVE_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color indexed="9"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color indexed="9"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>development</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20160103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20160104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20160105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしすせそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たちつてと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>444</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3333</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4444</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012345678901234567890123456789012345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016-01-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016-01-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROCESS_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="8"/>
@@ -901,11 +1123,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,6 +1206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1013,6 +1241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1206,11 +1435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView showGridLines="0" topLeftCell="J55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1349,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -1364,1346 +1593,2153 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29.25">
-      <c r="A8" s="18" t="s">
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="21">
+      <c r="A7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="29.25">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="13" t="s">
+      <c r="Q12" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P13" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="Q13" s="23" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="22" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N16" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="27" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="18" spans="1:16" s="25" customFormat="1" ht="29.25">
-      <c r="A18" s="28" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="19" spans="1:16" s="25" customFormat="1" ht="29.25">
+      <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="15" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J22" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P22" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O23" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P23" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="22" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N27" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="29.25">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:16" ht="29.25">
+      <c r="A30" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="15" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I33" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J33" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="P33" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="13" t="s">
+      <c r="Q33" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H34" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I34" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J34" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K34" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L34" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="M34" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N34" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O34" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P34" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
+      <c r="Q34" s="23" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L37" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N37" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="27" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-    </row>
-    <row r="39" spans="1:18" s="25" customFormat="1" ht="29.25">
-      <c r="A39" s="28" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+    </row>
+    <row r="40" spans="1:18" s="25" customFormat="1" ht="29.25">
+      <c r="A40" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="15" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F43" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I43" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J43" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K43" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="M43" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="N43" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="22" t="s">
+      <c r="P43" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="13" t="s">
+    <row r="44" spans="1:18">
+      <c r="A44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G44" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H44" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I44" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J44" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="27" t="s">
+      <c r="K44" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L44" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M44" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N44" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O44" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P44" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-    </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I47" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="J47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="22" t="s">
+      <c r="K47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="22" t="s">
+      <c r="L47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="M47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="N47" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="27" t="s">
+    <row r="48" spans="1:18">
+      <c r="A48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G48" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H48" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J48" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L48" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M47" s="23" t="s">
+      <c r="M48" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="N48" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="29.25">
-      <c r="A49" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="12"/>
+    <row r="50" spans="1:18" ht="29.25">
+      <c r="A50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="15" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B53" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D53" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E53" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H53" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J53" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K53" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="L53" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="22" t="s">
+      <c r="M53" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="22" t="s">
+      <c r="N53" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="22" t="s">
+      <c r="O53" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P52" s="22" t="s">
+      <c r="P53" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="13" t="s">
+      <c r="Q53" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B54" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D54" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G54" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J54" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="27" t="s">
+      <c r="K54" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L53" s="23" t="s">
+      <c r="L54" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M53" s="23" t="s">
+      <c r="M54" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N53" s="23" t="s">
+      <c r="N54" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="O54" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P53" s="23" t="s">
+      <c r="P54" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
+      <c r="Q54" s="23" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B57" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F57" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G57" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I57" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J57" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K57" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L57" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="22" t="s">
+      <c r="M57" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N56" s="22" t="s">
+      <c r="N57" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="27" t="s">
+    <row r="58" spans="1:18">
+      <c r="A58" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-    </row>
-    <row r="59" spans="1:18" s="25" customFormat="1" ht="29.25">
-      <c r="A59" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="12"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+    </row>
+    <row r="60" spans="1:18" s="25" customFormat="1" ht="29.25">
+      <c r="A60" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="15" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E63" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G63" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H63" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I63" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J63" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K63" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L63" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M62" s="22" t="s">
+      <c r="M63" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="22" t="s">
+      <c r="N63" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O62" s="22" t="s">
+      <c r="O63" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="22" t="s">
+      <c r="P63" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="13" t="s">
+    <row r="64" spans="1:18">
+      <c r="A64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B64" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="13" t="s">
+      <c r="E64" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H64" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I64" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J64" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K63" s="27" t="s">
+      <c r="K64" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L64" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M63" s="23" t="s">
+      <c r="M64" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N63" s="23" t="s">
+      <c r="N64" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O64" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P64" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="22" t="s">
+    <row r="66" spans="1:18">
+      <c r="A66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B67" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D67" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E67" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F67" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G67" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H67" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I67" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="J67" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K67" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="22" t="s">
+      <c r="L67" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="M67" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="22" t="s">
+      <c r="N67" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="27" t="s">
+    <row r="68" spans="1:18">
+      <c r="A68" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="13" t="s">
+      <c r="D68" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="I68" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J67" s="27" t="s">
+      <c r="J68" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K68" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L67" s="23" t="s">
+      <c r="L68" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M67" s="23" t="s">
+      <c r="M68" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N67" s="23" t="s">
+      <c r="N68" s="23" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="29.25">
+      <c r="A70" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N74" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O74" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O75" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P75" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N76" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O76" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P76" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O77" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q77" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+    </row>
+    <row r="83" spans="1:16" s="25" customFormat="1" ht="29.25">
+      <c r="A83" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M86" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O86" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P86" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O87" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O88" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P88" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O89" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P89" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O90" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P90" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K93" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2715,11 +3751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:IV11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2902,6 +3938,9 @@
       <c r="P9" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="Q9" s="22" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="13" t="s">
@@ -2951,6 +3990,9 @@
       </c>
       <c r="P10" s="23" t="s">
         <v>52</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:18">

--- a/src/test/java/com/nablarch/example/app/batch/ProjectCreationServiceActionTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/batch/ProjectCreationServiceActionTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK88843\git\nablarch-example-db-queue\src\test\java\com\nablarch\example\app\batch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09152A4-D4F3-46D1-ADD6-4A4410593386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="489" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="142">
   <si>
     <t>no</t>
   </si>
@@ -315,10 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト１</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -864,11 +866,27 @@
     <t>PROCESS_ID</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>0000000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0000000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0000000003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0000000004</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="8"/>
@@ -1118,8 +1136,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
-    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1127,12 +1145,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1174,7 +1195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1207,9 +1228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,6 +1280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1417,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1435,12 +1490,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1532,10 +1585,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>16</v>
@@ -1546,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>14</v>
@@ -1558,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>4</v>
@@ -1569,25 +1622,25 @@
     </row>
     <row r="6" spans="1:18" s="11" customFormat="1" ht="21">
       <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>4</v>
@@ -1595,25 +1648,25 @@
     </row>
     <row r="7" spans="1:18" s="11" customFormat="1" ht="21">
       <c r="A7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>4</v>
@@ -1701,36 +1754,36 @@
         <v>39</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>18</v>
@@ -1754,7 +1807,7 @@
         <v>52</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1779,7 +1832,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1830,7 +1883,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="24"/>
@@ -1930,7 +1983,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="13" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>41</v>
@@ -1980,7 +2033,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2031,7 +2084,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>42</v>
@@ -2075,7 +2128,7 @@
     </row>
     <row r="30" spans="1:16" ht="29.25">
       <c r="A30" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2100,7 +2153,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2155,58 +2208,58 @@
         <v>39</v>
       </c>
       <c r="Q33" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B34" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="J34" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="O34" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P34" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q34" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2231,7 +2284,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2282,7 +2335,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="24"/>
@@ -2300,7 +2353,7 @@
     </row>
     <row r="40" spans="1:18" s="25" customFormat="1" ht="29.25">
       <c r="A40" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -2325,7 +2378,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -2382,49 +2435,49 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B44" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="J44" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K44" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L44" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="O44" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O44" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P44" s="23" t="s">
         <v>2</v>
@@ -2432,7 +2485,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2483,51 +2536,51 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="J48" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>2</v>
       </c>
       <c r="L48" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M48" s="23" t="s">
+      <c r="N48" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="29.25">
       <c r="A50" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2552,7 +2605,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2607,60 +2660,60 @@
         <v>39</v>
       </c>
       <c r="Q53" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B54" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="J54" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="K54" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L54" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N54" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N54" s="23" t="s">
+      <c r="O54" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O54" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P54" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q54" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2685,7 +2738,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2736,7 +2789,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="24"/>
@@ -2754,7 +2807,7 @@
     </row>
     <row r="60" spans="1:18" s="25" customFormat="1" ht="29.25">
       <c r="A60" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -2779,7 +2832,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -2836,49 +2889,49 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B64" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H64" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="J64" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="K64" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L64" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M64" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N64" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="O64" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O64" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P64" s="23" t="s">
         <v>2</v>
@@ -2886,7 +2939,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -2937,51 +2990,51 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="I68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="J68" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="K68" s="23" t="s">
         <v>2</v>
       </c>
       <c r="L68" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="N68" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="29.25">
       <c r="A70" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -3006,7 +3059,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -3061,219 +3114,219 @@
         <v>39</v>
       </c>
       <c r="Q73" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="13" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I74" s="23" t="s">
         <v>47</v>
       </c>
       <c r="J74" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L74" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M74" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N74" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N74" s="23" t="s">
+      <c r="O74" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O74" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P74" s="23" t="s">
         <v>2</v>
       </c>
       <c r="Q74" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I75" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="J75" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L75" s="23" t="s">
         <v>5</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O75" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P75" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q75" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="13" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="G76" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O76" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P76" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q76" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="13" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B77" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="G77" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O77" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P77" s="23" t="s">
         <v>5</v>
       </c>
       <c r="Q77" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3298,7 +3351,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -3349,7 +3402,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="24"/>
@@ -3367,7 +3420,7 @@
     </row>
     <row r="83" spans="1:16" s="25" customFormat="1" ht="29.25">
       <c r="A83" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -3392,7 +3445,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -3449,13 +3502,13 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="13" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>43</v>
@@ -3464,34 +3517,34 @@
         <v>44</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I87" s="23" t="s">
         <v>47</v>
       </c>
       <c r="J87" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L87" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M87" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N87" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="23" t="s">
+      <c r="O87" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O87" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="P87" s="23" t="s">
         <v>2</v>
@@ -3499,49 +3552,49 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="13" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G88" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I88" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="J88" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L88" s="23" t="s">
         <v>5</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O88" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P88" s="23" t="s">
         <v>2</v>
@@ -3549,99 +3602,99 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="13" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E89" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="G89" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K89" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N89" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O89" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P89" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="13" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B90" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E90" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="G90" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N90" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O90" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P90" s="23" t="s">
         <v>5</v>
@@ -3649,7 +3702,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -3700,46 +3753,46 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H94" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="I94" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J94" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K94" s="23" t="s">
         <v>5</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3751,12 +3804,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -3836,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>3</v>
@@ -3848,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>4</v>
@@ -3939,36 +3990,36 @@
         <v>39</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>18</v>
@@ -3992,7 +4043,7 @@
         <v>52</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4017,7 +4068,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -4068,7 +4119,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="24"/>
@@ -4168,19 +4219,19 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="C21" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>44</v>
@@ -4189,10 +4240,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>18</v>
@@ -4218,7 +4269,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -4269,7 +4320,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="24"/>
